--- a/biology/Botanique/Ruellia_elegans/Ruellia_elegans.xlsx
+++ b/biology/Botanique/Ruellia_elegans/Ruellia_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Ruellie élégante, Ruellia elegans, est une espèce de plantes herbacées à fleurs du genre Ruellia de la famille des Acanthaceae.
 C'est une espèce originaire du Brésil.
-Sa description en latin fut publiée par le botaniste Jean-Louis Marie Poiret pour la première fois en 1816 dans le supplément 4 en page 727 de l'Encyclopédie méthodique Botanique [1]:
+Sa description en latin fut publiée par le botaniste Jean-Louis Marie Poiret pour la première fois en 1816 dans le supplément 4 en page 727 de l'Encyclopédie méthodique Botanique :
 Ruellia ( formosa ) foliis petiolatis, integerrimis, ovatis ; utrinque pubescentibus ; pedunculis axillaribus, alternis, longissimis, paucifloris ; corollis subringentibus.
 Il nous en fait la description suivante en français :
 « Cette plante a des rapports avec le Rullia macrophylla de Vahl ; elle en diffère par ses feuilles &amp; par la forme des fleurs. Ses tiges sont droites, presque ligneuses, un peu anguleuses, légèrement pileuses; les feuilles pétiolées, opposées, ovales, très entières, acuminées ou obtuses, un peu décurrentes sur les pétioles, assez grandes, pubescentes à leurs deux faces ; les pédicules alternes, axillaires, très longs, pileux, soutenant deux ou trios fleurs réunies &amp; pédicellées; le calice pileux ; ses découpures très aigües ; la corolle d’un rouge-vif ; le tube[Quoi ?] allongé, un peu courbé et comprimé ; le limbe ample, presque en masque ou à deux lèvres ; les filaments saillants hors du tube ; les anthères sagittées ; le style plus long que les étamines ; le stigmate bifide. »
@@ -516,9 +528,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon "The Plant List"[2]   11 juin 2012
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon "The Plant List"   11 juin 2012
 Arrhostoxylum formosa (Bonpl.) Nees
 Ruellia formosa Bonpl.
 			Ruellia elegans
